--- a/test.xlsx
+++ b/test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1525" uniqueCount="102">
   <si>
     <t>Captain/Master</t>
   </si>
@@ -47,7 +47,7 @@
     <t>AIG Luxembourg</t>
   </si>
   <si>
-    <t>Perfect</t>
+    <t>PRESTIGES</t>
   </si>
   <si>
     <t>L2022479</t>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>not applicable</t>
+  </si>
+  <si>
+    <t>Assistance and Repatriation</t>
   </si>
   <si>
     <t xml:space="preserve"> Estate Manager</t>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>ELODIE</t>
+  </si>
+  <si>
+    <t>COMFORTMLC S</t>
   </si>
   <si>
     <t>Chief Engineer</t>
@@ -22575,7 +22581,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW5" t="s" s="61">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX5" t="s" s="62">
         <v>10</v>
@@ -22599,7 +22605,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF5" t="n" s="69">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG5" t="n" s="70">
         <v>0.0</v>
@@ -22827,7 +22833,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA6" t="n" s="129">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB6" t="n" s="130">
         <v>0.0</v>
@@ -22971,7 +22977,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW6" t="s" s="181">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX6" t="s" s="182">
         <v>10</v>
@@ -22995,7 +23001,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF6" t="n" s="189">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG6" t="n" s="190">
         <v>0.0</v>
@@ -23151,16 +23157,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>4</v>
@@ -23169,10 +23175,10 @@
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" t="n">
         <v>0.0</v>
@@ -23223,7 +23229,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA7" t="n" s="249">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB7" t="n" s="250">
         <v>0.0</v>
@@ -23367,7 +23373,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW7" t="s" s="301">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX7" t="s" s="302">
         <v>10</v>
@@ -23391,7 +23397,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF7" t="n" s="309">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG7" t="n" s="310">
         <v>0.0</v>
@@ -23547,13 +23553,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
@@ -23619,7 +23625,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA8" t="n" s="369">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB8" t="n" s="370">
         <v>0.0</v>
@@ -23763,7 +23769,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW8" t="s" s="421">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX8" t="s" s="422">
         <v>10</v>
@@ -23787,7 +23793,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF8" t="n" s="429">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG8" t="n" s="430">
         <v>0.0</v>
@@ -23943,13 +23949,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
@@ -24015,7 +24021,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA9" t="n" s="489">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB9" t="n" s="490">
         <v>0.0</v>
@@ -24159,7 +24165,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW9" t="s" s="541">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX9" t="s" s="542">
         <v>10</v>
@@ -24183,7 +24189,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF9" t="n" s="549">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG9" t="n" s="550">
         <v>0.0</v>
@@ -24339,13 +24345,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
@@ -24393,7 +24399,7 @@
         <v>10</v>
       </c>
       <c r="T10" t="s" s="603">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U10" t="s" s="604">
         <v>12</v>
@@ -24411,7 +24417,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA10" t="n" s="609">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB10" t="n" s="610">
         <v>0.0</v>
@@ -24555,13 +24561,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW10" t="s" s="661">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX10" t="s" s="662">
         <v>10</v>
       </c>
       <c r="BY10" t="s" s="663">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ10" t="s" s="664">
         <v>12</v>
@@ -24579,7 +24585,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF10" t="n" s="669">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG10" t="n" s="670">
         <v>0.0</v>
@@ -24735,13 +24741,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
@@ -24789,7 +24795,7 @@
         <v>10</v>
       </c>
       <c r="T11" t="s" s="723">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U11" t="s" s="724">
         <v>12</v>
@@ -24807,7 +24813,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA11" t="n" s="729">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" t="n" s="730">
         <v>0.0</v>
@@ -24951,13 +24957,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW11" t="s" s="781">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX11" t="s" s="782">
         <v>10</v>
       </c>
       <c r="BY11" t="s" s="783">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ11" t="s" s="784">
         <v>12</v>
@@ -24975,7 +24981,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF11" t="n" s="789">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG11" t="n" s="790">
         <v>0.0</v>
@@ -25131,13 +25137,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
@@ -25203,7 +25209,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA12" t="n" s="849">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB12" t="n" s="850">
         <v>0.0</v>
@@ -25347,7 +25353,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW12" t="s" s="901">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX12" t="s" s="902">
         <v>10</v>
@@ -25371,7 +25377,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF12" t="n" s="909">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG12" t="n" s="910">
         <v>0.0</v>
@@ -25527,13 +25533,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>3</v>
@@ -25599,7 +25605,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA13" t="n" s="969">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB13" t="n" s="970">
         <v>0.0</v>
@@ -25743,7 +25749,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW13" t="s" s="1021">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX13" t="s" s="1022">
         <v>10</v>
@@ -25767,7 +25773,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF13" t="n" s="1029">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG13" t="n" s="1030">
         <v>0.0</v>
@@ -25923,13 +25929,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>3</v>
@@ -25995,7 +26001,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA14" t="n" s="1089">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB14" t="n" s="1090">
         <v>0.0</v>
@@ -26139,7 +26145,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW14" t="s" s="1141">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX14" t="s" s="1142">
         <v>10</v>
@@ -26163,7 +26169,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF14" t="n" s="1149">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG14" t="n" s="1150">
         <v>0.0</v>
@@ -26319,13 +26325,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
         <v>3</v>
@@ -26391,7 +26397,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA15" t="n" s="1209">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB15" t="n" s="1210">
         <v>0.0</v>
@@ -26535,7 +26541,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW15" t="s" s="1261">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX15" t="s" s="1262">
         <v>10</v>
@@ -26559,7 +26565,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF15" t="n" s="1269">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG15" t="n" s="1270">
         <v>0.0</v>
@@ -26715,13 +26721,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -26787,7 +26793,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA16" t="n" s="1329">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB16" t="n" s="1330">
         <v>0.0</v>
@@ -26931,7 +26937,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW16" t="s" s="1381">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX16" t="s" s="1382">
         <v>10</v>
@@ -26955,7 +26961,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF16" t="n" s="1389">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG16" t="n" s="1390">
         <v>0.0</v>
@@ -27111,13 +27117,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
         <v>3</v>
@@ -27183,7 +27189,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA17" t="n" s="1449">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB17" t="n" s="1450">
         <v>0.0</v>
@@ -27327,7 +27333,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW17" t="s" s="1501">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX17" t="s" s="1502">
         <v>10</v>
@@ -27351,7 +27357,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF17" t="n" s="1509">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG17" t="n" s="1510">
         <v>0.0</v>
@@ -27507,13 +27513,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -27579,7 +27585,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA18" t="n" s="1569">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB18" t="n" s="1570">
         <v>0.0</v>
@@ -27723,7 +27729,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW18" t="s" s="1621">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX18" t="s" s="1622">
         <v>10</v>
@@ -27747,7 +27753,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF18" t="n" s="1629">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG18" t="n" s="1630">
         <v>0.0</v>
@@ -27903,13 +27909,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -27957,7 +27963,7 @@
         <v>10</v>
       </c>
       <c r="T19" t="s" s="1683">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U19" t="s" s="1684">
         <v>12</v>
@@ -27975,7 +27981,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA19" t="n" s="1689">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB19" t="n" s="1690">
         <v>0.0</v>
@@ -28119,13 +28125,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW19" t="s" s="1741">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX19" t="s" s="1742">
         <v>10</v>
       </c>
       <c r="BY19" t="s" s="1743">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ19" t="s" s="1744">
         <v>12</v>
@@ -28143,7 +28149,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF19" t="n" s="1749">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG19" t="n" s="1750">
         <v>0.0</v>
@@ -28299,13 +28305,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -28371,7 +28377,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA20" t="n" s="1809">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB20" t="n" s="1810">
         <v>0.0</v>
@@ -28515,7 +28521,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW20" t="s" s="1861">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX20" t="s" s="1862">
         <v>10</v>
@@ -28539,7 +28545,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF20" t="n" s="1869">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG20" t="n" s="1870">
         <v>0.0</v>
@@ -28695,13 +28701,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -28767,7 +28773,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA21" t="n" s="1929">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB21" t="n" s="1930">
         <v>0.0</v>
@@ -28911,7 +28917,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW21" t="s" s="1981">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX21" t="s" s="1982">
         <v>10</v>
@@ -28935,7 +28941,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF21" t="n" s="1989">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG21" t="n" s="1990">
         <v>0.0</v>
@@ -29091,13 +29097,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -29145,7 +29151,7 @@
         <v>10</v>
       </c>
       <c r="T22" t="s" s="2043">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U22" t="s" s="2044">
         <v>12</v>
@@ -29163,7 +29169,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA22" t="n" s="2049">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB22" t="n" s="2050">
         <v>0.0</v>
@@ -29307,13 +29313,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW22" t="s" s="2101">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX22" t="s" s="2102">
         <v>10</v>
       </c>
       <c r="BY22" t="s" s="2103">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ22" t="s" s="2104">
         <v>12</v>
@@ -29331,7 +29337,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF22" t="n" s="2109">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG22" t="n" s="2110">
         <v>0.0</v>
@@ -29487,13 +29493,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>3</v>
@@ -29559,7 +29565,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA23" t="n" s="2169">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB23" t="n" s="2170">
         <v>0.0</v>
@@ -29703,7 +29709,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW23" t="s" s="2221">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX23" t="s" s="2222">
         <v>10</v>
@@ -29727,7 +29733,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF23" t="n" s="2229">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG23" t="n" s="2230">
         <v>0.0</v>
@@ -29883,13 +29889,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>3</v>
@@ -29955,7 +29961,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA24" t="n" s="2289">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB24" t="n" s="2290">
         <v>0.0</v>
@@ -30099,7 +30105,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW24" t="s" s="2341">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX24" t="s" s="2342">
         <v>10</v>
@@ -30123,7 +30129,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF24" t="n" s="2349">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG24" t="n" s="2350">
         <v>0.0</v>
@@ -30279,13 +30285,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>3</v>
@@ -30333,7 +30339,7 @@
         <v>10</v>
       </c>
       <c r="T25" t="s" s="2403">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U25" t="s" s="2404">
         <v>12</v>
@@ -30351,7 +30357,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA25" t="n" s="2409">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB25" t="n" s="2410">
         <v>0.0</v>
@@ -30495,13 +30501,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW25" t="s" s="2461">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX25" t="s" s="2462">
         <v>10</v>
       </c>
       <c r="BY25" t="s" s="2463">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ25" t="s" s="2464">
         <v>12</v>
@@ -30519,7 +30525,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF25" t="n" s="2469">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG25" t="n" s="2470">
         <v>0.0</v>
@@ -30675,13 +30681,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
         <v>3</v>
@@ -30693,10 +30699,10 @@
         <v>5</v>
       </c>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J26" t="n">
         <v>0.0</v>
@@ -30747,7 +30753,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA26" t="n" s="2529">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB26" t="n" s="2530">
         <v>0.0</v>
@@ -30891,7 +30897,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW26" t="s" s="2581">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX26" t="s" s="2582">
         <v>10</v>
@@ -30915,7 +30921,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF26" t="n" s="2589">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG26" t="n" s="2590">
         <v>0.0</v>
@@ -31071,28 +31077,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J27" t="n">
         <v>0.0</v>
@@ -31143,7 +31149,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA27" t="n" s="2649">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB27" t="n" s="2650">
         <v>0.0</v>
@@ -31287,7 +31293,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW27" t="s" s="2701">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX27" t="s" s="2702">
         <v>10</v>
@@ -31311,7 +31317,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF27" t="n" s="2709">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG27" t="n" s="2710">
         <v>0.0</v>
@@ -31467,13 +31473,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D28" t="s">
         <v>3</v>
@@ -31485,10 +31491,10 @@
         <v>5</v>
       </c>
       <c r="H28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J28" t="n">
         <v>0.0</v>
@@ -31539,7 +31545,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA28" t="n" s="2769">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB28" t="n" s="2770">
         <v>0.0</v>
@@ -31683,7 +31689,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW28" t="s" s="2821">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX28" t="s" s="2822">
         <v>10</v>
@@ -31707,7 +31713,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF28" t="n" s="2829">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG28" t="n" s="2830">
         <v>0.0</v>
@@ -31863,13 +31869,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D29" t="s">
         <v>3</v>
@@ -31881,10 +31887,10 @@
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J29" t="n">
         <v>0.0</v>
@@ -31917,7 +31923,7 @@
         <v>10</v>
       </c>
       <c r="T29" t="s" s="2883">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U29" t="s" s="2884">
         <v>12</v>
@@ -31935,7 +31941,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA29" t="n" s="2889">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB29" t="n" s="2890">
         <v>0.0</v>
@@ -32079,13 +32085,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW29" t="s" s="2941">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX29" t="s" s="2942">
         <v>10</v>
       </c>
       <c r="BY29" t="s" s="2943">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ29" t="s" s="2944">
         <v>12</v>
@@ -32103,7 +32109,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF29" t="n" s="2949">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG29" t="n" s="2950">
         <v>0.0</v>
@@ -32259,28 +32265,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J30" t="n">
         <v>0.0</v>
@@ -32331,7 +32337,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA30" t="n" s="3009">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB30" t="n" s="3010">
         <v>0.0</v>
@@ -32475,7 +32481,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW30" t="s" s="3061">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX30" t="s" s="3062">
         <v>10</v>
@@ -32499,7 +32505,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF30" t="n" s="3069">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG30" t="n" s="3070">
         <v>0.0</v>
@@ -32655,13 +32661,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>3</v>
@@ -32673,10 +32679,10 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J31" t="n">
         <v>0.0</v>
@@ -32727,7 +32733,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA31" t="n" s="3129">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB31" t="n" s="3130">
         <v>0.0</v>
@@ -32871,7 +32877,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW31" t="s" s="3181">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX31" t="s" s="3182">
         <v>10</v>
@@ -32895,7 +32901,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF31" t="n" s="3189">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG31" t="n" s="3190">
         <v>0.0</v>
@@ -33051,28 +33057,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D32" t="s">
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>5</v>
       </c>
       <c r="H32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I32" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J32" t="n">
         <v>0.0</v>
@@ -33123,7 +33129,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA32" t="n" s="3249">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB32" t="n" s="3250">
         <v>0.0</v>
@@ -33267,7 +33273,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW32" t="s" s="3301">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX32" t="s" s="3302">
         <v>10</v>
@@ -33291,7 +33297,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF32" t="n" s="3309">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG32" t="n" s="3310">
         <v>0.0</v>
@@ -33450,25 +33456,25 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
         <v>5</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J33" t="n">
         <v>0.0</v>
@@ -33519,7 +33525,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA33" t="n" s="3369">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB33" t="n" s="3370">
         <v>0.0</v>
@@ -33663,7 +33669,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW33" t="s" s="3421">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX33" t="s" s="3422">
         <v>10</v>
@@ -33687,7 +33693,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF33" t="n" s="3429">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG33" t="n" s="3430">
         <v>0.0</v>
@@ -33843,28 +33849,28 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D34" t="s">
         <v>3</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
         <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J34" t="n">
         <v>0.0</v>
@@ -33915,7 +33921,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA34" t="n" s="3489">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB34" t="n" s="3490">
         <v>0.0</v>
@@ -34059,7 +34065,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW34" t="s" s="3541">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX34" t="s" s="3542">
         <v>10</v>
@@ -34083,7 +34089,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF34" t="n" s="3549">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG34" t="n" s="3550">
         <v>0.0</v>
@@ -34239,28 +34245,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
         <v>3</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
         <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J35" t="n">
         <v>0.0</v>
@@ -34311,7 +34317,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA35" t="n" s="3609">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB35" t="n" s="3610">
         <v>0.0</v>
@@ -34455,7 +34461,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW35" t="s" s="3661">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX35" t="s" s="3662">
         <v>10</v>
@@ -34479,7 +34485,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF35" t="n" s="3669">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG35" t="n" s="3670">
         <v>0.0</v>
@@ -34635,28 +34641,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>3</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
         <v>5</v>
       </c>
       <c r="H36" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J36" t="n">
         <v>0.0</v>
@@ -34707,7 +34713,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA36" t="n" s="3729">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB36" t="n" s="3730">
         <v>0.0</v>
@@ -34851,7 +34857,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW36" t="s" s="3781">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX36" t="s" s="3782">
         <v>10</v>
@@ -34875,7 +34881,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF36" t="n" s="3789">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG36" t="n" s="3790">
         <v>0.0</v>
@@ -35031,13 +35037,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
@@ -35049,10 +35055,10 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J37" t="n">
         <v>0.0</v>
@@ -35103,7 +35109,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA37" t="n" s="3849">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB37" t="n" s="3850">
         <v>0.0</v>
@@ -35247,7 +35253,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW37" t="s" s="3901">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX37" t="s" s="3902">
         <v>10</v>
@@ -35271,7 +35277,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF37" t="n" s="3909">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG37" t="n" s="3910">
         <v>0.0</v>
@@ -35427,13 +35433,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
         <v>3</v>
@@ -35499,7 +35505,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA38" t="n" s="3969">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB38" t="n" s="3970">
         <v>0.0</v>
@@ -35643,7 +35649,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW38" t="s" s="4021">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX38" t="s" s="4022">
         <v>10</v>
@@ -35667,7 +35673,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF38" t="n" s="4029">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG38" t="n" s="4030">
         <v>0.0</v>
@@ -35823,13 +35829,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
         <v>3</v>
@@ -35841,10 +35847,10 @@
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J39" t="n">
         <v>0.0</v>
@@ -35877,7 +35883,7 @@
         <v>10</v>
       </c>
       <c r="T39" t="s" s="4083">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U39" t="s" s="4084">
         <v>12</v>
@@ -35895,7 +35901,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA39" t="n" s="4089">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB39" t="n" s="4090">
         <v>0.0</v>
@@ -36039,13 +36045,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW39" t="s" s="4141">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX39" t="s" s="4142">
         <v>10</v>
       </c>
       <c r="BY39" t="s" s="4143">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ39" t="s" s="4144">
         <v>12</v>
@@ -36063,7 +36069,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF39" t="n" s="4149">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG39" t="n" s="4150">
         <v>0.0</v>
@@ -36219,13 +36225,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D40" t="s">
         <v>3</v>
@@ -36237,10 +36243,10 @@
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J40" t="n">
         <v>0.0</v>
@@ -36273,7 +36279,7 @@
         <v>10</v>
       </c>
       <c r="T40" t="s" s="4203">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U40" t="s" s="4204">
         <v>12</v>
@@ -36291,7 +36297,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA40" t="n" s="4209">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB40" t="n" s="4210">
         <v>0.0</v>
@@ -36435,13 +36441,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW40" t="s" s="4261">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX40" t="s" s="4262">
         <v>10</v>
       </c>
       <c r="BY40" t="s" s="4263">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ40" t="s" s="4264">
         <v>12</v>
@@ -36459,7 +36465,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF40" t="n" s="4269">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG40" t="n" s="4270">
         <v>0.0</v>
@@ -36615,13 +36621,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D41" t="s">
         <v>3</v>
@@ -36633,10 +36639,10 @@
         <v>5</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J41" t="n">
         <v>0.0</v>
@@ -36687,7 +36693,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA41" t="n" s="4329">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB41" t="n" s="4330">
         <v>0.0</v>
@@ -36831,7 +36837,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW41" t="s" s="4381">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX41" t="s" s="4382">
         <v>10</v>
@@ -36855,7 +36861,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF41" t="n" s="4389">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG41" t="n" s="4390">
         <v>0.0</v>
@@ -37011,13 +37017,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D42" t="s">
         <v>3</v>
@@ -37029,10 +37035,10 @@
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J42" t="n">
         <v>0.0</v>
@@ -37065,7 +37071,7 @@
         <v>10</v>
       </c>
       <c r="T42" t="s" s="4443">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U42" t="s" s="4444">
         <v>12</v>
@@ -37083,7 +37089,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA42" t="n" s="4449">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB42" t="n" s="4450">
         <v>0.0</v>
@@ -37227,13 +37233,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW42" t="s" s="4501">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX42" t="s" s="4502">
         <v>10</v>
       </c>
       <c r="BY42" t="s" s="4503">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ42" t="s" s="4504">
         <v>12</v>
@@ -37251,7 +37257,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF42" t="n" s="4509">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG42" t="n" s="4510">
         <v>0.0</v>
@@ -37407,13 +37413,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D43" t="s">
         <v>3</v>
@@ -37425,10 +37431,10 @@
         <v>5</v>
       </c>
       <c r="H43" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J43" t="n">
         <v>0.0</v>
@@ -37461,7 +37467,7 @@
         <v>10</v>
       </c>
       <c r="T43" t="s" s="4563">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U43" t="s" s="4564">
         <v>12</v>
@@ -37479,7 +37485,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA43" t="n" s="4569">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB43" t="n" s="4570">
         <v>0.0</v>
@@ -37623,13 +37629,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW43" t="s" s="4621">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX43" t="s" s="4622">
         <v>10</v>
       </c>
       <c r="BY43" t="s" s="4623">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ43" t="s" s="4624">
         <v>12</v>
@@ -37647,7 +37653,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF43" t="n" s="4629">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG43" t="n" s="4630">
         <v>0.0</v>
@@ -37803,13 +37809,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D44" t="s">
         <v>3</v>
@@ -37821,10 +37827,10 @@
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
         <v>0.0</v>
@@ -37875,7 +37881,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA44" t="n" s="4689">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB44" t="n" s="4690">
         <v>0.0</v>
@@ -38019,7 +38025,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW44" t="s" s="4741">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX44" t="s" s="4742">
         <v>10</v>
@@ -38043,7 +38049,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF44" t="n" s="4749">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG44" t="n" s="4750">
         <v>0.0</v>
@@ -38199,13 +38205,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D45" t="s">
         <v>3</v>
@@ -38217,10 +38223,10 @@
         <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J45" t="n">
         <v>0.0</v>
@@ -38271,7 +38277,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA45" t="n" s="4809">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB45" t="n" s="4810">
         <v>0.0</v>
@@ -38415,7 +38421,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW45" t="s" s="4861">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX45" t="s" s="4862">
         <v>10</v>
@@ -38439,7 +38445,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF45" t="n" s="4869">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG45" t="n" s="4870">
         <v>0.0</v>
@@ -38595,13 +38601,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D46" t="s">
         <v>3</v>
@@ -38667,7 +38673,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA46" t="n" s="4929">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB46" t="n" s="4930">
         <v>0.0</v>
@@ -38811,7 +38817,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW46" t="s" s="4981">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX46" t="s" s="4982">
         <v>10</v>
@@ -38835,7 +38841,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF46" t="n" s="4989">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG46" t="n" s="4990">
         <v>0.0</v>
@@ -38991,13 +38997,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
         <v>79</v>
       </c>
-      <c r="B47" t="s">
-        <v>77</v>
-      </c>
       <c r="C47" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
@@ -39045,7 +39051,7 @@
         <v>10</v>
       </c>
       <c r="T47" t="s" s="5043">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U47" t="s" s="5044">
         <v>12</v>
@@ -39063,7 +39069,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA47" t="n" s="5049">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" t="n" s="5050">
         <v>0.0</v>
@@ -39207,13 +39213,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW47" t="s" s="5101">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX47" t="s" s="5102">
         <v>10</v>
       </c>
       <c r="BY47" t="s" s="5103">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ47" t="s" s="5104">
         <v>12</v>
@@ -39231,7 +39237,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF47" t="n" s="5109">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG47" t="n" s="5110">
         <v>0.0</v>
@@ -39387,13 +39393,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D48" t="s">
         <v>3</v>
@@ -39405,10 +39411,10 @@
         <v>5</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J48" t="n">
         <v>0.0</v>
@@ -39459,7 +39465,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA48" t="n" s="5169">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB48" t="n" s="5170">
         <v>0.0</v>
@@ -39603,7 +39609,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW48" t="s" s="5221">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX48" t="s" s="5222">
         <v>10</v>
@@ -39627,7 +39633,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF48" t="n" s="5229">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG48" t="n" s="5230">
         <v>0.0</v>
@@ -39783,13 +39789,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D49" t="s">
         <v>3</v>
@@ -39801,10 +39807,10 @@
         <v>5</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J49" t="n">
         <v>0.0</v>
@@ -39855,7 +39861,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA49" t="n" s="5289">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB49" t="n" s="5290">
         <v>0.0</v>
@@ -39999,7 +40005,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW49" t="s" s="5341">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX49" t="s" s="5342">
         <v>10</v>
@@ -40023,7 +40029,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF49" t="n" s="5349">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG49" t="n" s="5350">
         <v>0.0</v>
@@ -40179,16 +40185,16 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F50" t="s">
         <v>4</v>
@@ -40251,7 +40257,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA50" t="n" s="5409">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB50" t="n" s="5410">
         <v>0.0</v>
@@ -40395,7 +40401,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW50" t="s" s="5461">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX50" t="s" s="5462">
         <v>10</v>
@@ -40419,7 +40425,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF50" t="n" s="5469">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG50" t="n" s="5470">
         <v>0.0</v>
@@ -40575,16 +40581,16 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C51" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F51" t="s">
         <v>4</v>
@@ -40647,7 +40653,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA51" t="n" s="5529">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB51" t="n" s="5530">
         <v>0.0</v>
@@ -40791,7 +40797,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW51" t="s" s="5581">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX51" t="s" s="5582">
         <v>10</v>
@@ -40815,7 +40821,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF51" t="n" s="5589">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG51" t="n" s="5590">
         <v>0.0</v>
@@ -40971,13 +40977,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
         <v>3</v>
@@ -41043,7 +41049,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA52" t="n" s="5649">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB52" t="n" s="5650">
         <v>0.0</v>
@@ -41187,7 +41193,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW52" t="s" s="5701">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX52" t="s" s="5702">
         <v>10</v>
@@ -41211,7 +41217,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF52" t="n" s="5709">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG52" t="n" s="5710">
         <v>0.0</v>
@@ -41367,13 +41373,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
@@ -41439,7 +41445,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA53" t="n" s="5769">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB53" t="n" s="5770">
         <v>0.0</v>
@@ -41583,7 +41589,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW53" t="s" s="5821">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX53" t="s" s="5822">
         <v>10</v>
@@ -41607,7 +41613,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF53" t="n" s="5829">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG53" t="n" s="5830">
         <v>0.0</v>
@@ -41763,16 +41769,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C54" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F54" t="s">
         <v>4</v>
@@ -41835,7 +41841,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA54" t="n" s="5889">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB54" t="n" s="5890">
         <v>0.0</v>
@@ -41979,7 +41985,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW54" t="s" s="5941">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX54" t="s" s="5942">
         <v>10</v>
@@ -42003,7 +42009,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF54" t="n" s="5949">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG54" t="n" s="5950">
         <v>0.0</v>
@@ -42159,16 +42165,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F55" t="s">
         <v>4</v>
@@ -42231,7 +42237,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA55" t="n" s="6009">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB55" t="n" s="6010">
         <v>0.0</v>
@@ -42375,7 +42381,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW55" t="s" s="6061">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX55" t="s" s="6062">
         <v>10</v>
@@ -42399,7 +42405,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF55" t="n" s="6069">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG55" t="n" s="6070">
         <v>0.0</v>
@@ -42555,13 +42561,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C56" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
         <v>3</v>
@@ -42627,7 +42633,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA56" t="n" s="6129">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB56" t="n" s="6130">
         <v>0.0</v>
@@ -42771,7 +42777,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW56" t="s" s="6181">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX56" t="s" s="6182">
         <v>10</v>
@@ -42795,7 +42801,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF56" t="n" s="6189">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG56" t="n" s="6190">
         <v>0.0</v>
@@ -42951,28 +42957,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D57" t="s">
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G57" t="s">
         <v>5</v>
       </c>
       <c r="H57" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J57" t="n">
         <v>0.0</v>
@@ -43023,7 +43029,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA57" t="n" s="6249">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB57" t="n" s="6250">
         <v>0.0</v>
@@ -43167,7 +43173,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW57" t="s" s="6301">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX57" t="s" s="6302">
         <v>10</v>
@@ -43191,7 +43197,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF57" t="n" s="6309">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG57" t="n" s="6310">
         <v>0.0</v>
@@ -43347,13 +43353,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D58" t="s">
         <v>3</v>
@@ -43365,10 +43371,10 @@
         <v>5</v>
       </c>
       <c r="H58" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I58" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J58" t="n">
         <v>0.0</v>
@@ -43419,7 +43425,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA58" t="n" s="6369">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB58" t="n" s="6370">
         <v>0.0</v>
@@ -43563,7 +43569,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW58" t="s" s="6421">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX58" t="s" s="6422">
         <v>10</v>
@@ -43587,7 +43593,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF58" t="n" s="6429">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG58" t="n" s="6430">
         <v>0.0</v>
@@ -43743,13 +43749,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
         <v>3</v>
@@ -43761,10 +43767,10 @@
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J59" t="n">
         <v>0.0</v>
@@ -43797,7 +43803,7 @@
         <v>10</v>
       </c>
       <c r="T59" t="s" s="6483">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U59" t="s" s="6484">
         <v>12</v>
@@ -43815,7 +43821,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA59" t="n" s="6489">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB59" t="n" s="6490">
         <v>0.0</v>
@@ -43959,13 +43965,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW59" t="s" s="6541">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX59" t="s" s="6542">
         <v>10</v>
       </c>
       <c r="BY59" t="s" s="6543">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ59" t="s" s="6544">
         <v>12</v>
@@ -43983,7 +43989,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF59" t="n" s="6549">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG59" t="n" s="6550">
         <v>0.0</v>
@@ -44139,13 +44145,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
         <v>3</v>
@@ -44157,10 +44163,10 @@
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J60" t="n">
         <v>0.0</v>
@@ -44193,7 +44199,7 @@
         <v>10</v>
       </c>
       <c r="T60" t="s" s="6603">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U60" t="s" s="6604">
         <v>12</v>
@@ -44211,7 +44217,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA60" t="n" s="6609">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB60" t="n" s="6610">
         <v>0.0</v>
@@ -44355,13 +44361,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW60" t="s" s="6661">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX60" t="s" s="6662">
         <v>10</v>
       </c>
       <c r="BY60" t="s" s="6663">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ60" t="s" s="6664">
         <v>12</v>
@@ -44379,7 +44385,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF60" t="n" s="6669">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG60" t="n" s="6670">
         <v>0.0</v>
@@ -44535,13 +44541,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
         <v>3</v>
@@ -44607,7 +44613,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA61" t="n" s="6729">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB61" t="n" s="6730">
         <v>0.0</v>
@@ -44751,7 +44757,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW61" t="s" s="6781">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX61" t="s" s="6782">
         <v>10</v>
@@ -44775,7 +44781,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF61" t="n" s="6789">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG61" t="n" s="6790">
         <v>0.0</v>
@@ -44931,13 +44937,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
         <v>3</v>
@@ -45003,7 +45009,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA62" t="n" s="6849">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB62" t="n" s="6850">
         <v>0.0</v>
@@ -45147,7 +45153,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW62" t="s" s="6901">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX62" t="s" s="6902">
         <v>10</v>
@@ -45171,7 +45177,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF62" t="n" s="6909">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG62" t="n" s="6910">
         <v>0.0</v>
@@ -45327,13 +45333,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
         <v>3</v>
@@ -45399,7 +45405,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA63" t="n" s="6969">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB63" t="n" s="6970">
         <v>0.0</v>
@@ -45543,7 +45549,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW63" t="s" s="7021">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX63" t="s" s="7022">
         <v>10</v>
@@ -45567,7 +45573,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF63" t="n" s="7029">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG63" t="n" s="7030">
         <v>0.0</v>
@@ -45723,13 +45729,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B64" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
         <v>3</v>
@@ -45777,7 +45783,7 @@
         <v>10</v>
       </c>
       <c r="T64" t="s" s="7083">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="U64" t="s" s="7084">
         <v>12</v>
@@ -45795,7 +45801,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA64" t="n" s="7089">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="AB64" t="n" s="7090">
         <v>0.0</v>
@@ -45939,13 +45945,13 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW64" t="s" s="7141">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX64" t="s" s="7142">
         <v>10</v>
       </c>
       <c r="BY64" t="s" s="7143">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="BZ64" t="s" s="7144">
         <v>12</v>
@@ -45963,7 +45969,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF64" t="n" s="7149">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG64" t="n" s="7150">
         <v>0.0</v>
@@ -46119,13 +46125,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D65" t="s">
         <v>3</v>
@@ -46191,7 +46197,7 @@
         <v>500000.0</v>
       </c>
       <c r="AA65" t="n" s="7209">
-        <v>874.0385131835938</v>
+        <v>1822.1199951171875</v>
       </c>
       <c r="AB65" t="n" s="7210">
         <v>0.0</v>
@@ -46335,7 +46341,7 @@
         <f>AX5/12*$Q$5</f>
       </c>
       <c r="BW65" t="s" s="7261">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BX65" t="s" s="7262">
         <v>10</v>
@@ -46359,7 +46365,7 @@
         <v>500000.0</v>
       </c>
       <c r="CF65" t="n" s="7269">
-        <v>874.0385131835938</v>
+        <v>0.0</v>
       </c>
       <c r="CG65" t="n" s="7270">
         <v>0.0</v>
